--- a/Face_check/選課人數.xlsx
+++ b/Face_check/選課人數.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\project\Face_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericq\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE0D2B6-310A-45C6-85C3-EE7C7B09DD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821A223-C96F-49C2-8979-5F95837ADE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="2460" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17265" yWindow="1935" windowWidth="22335" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鍾昊良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>資工二真</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,23 +69,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陳科多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周賢裕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張峰偉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王建勳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林育緯</t>
+    <t>周x裕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳x多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾x良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林x緯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張x偉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王x勳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,17 +417,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,97 +439,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>108406011</v>
+        <v>108236011</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>108406003</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>132406010</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>108406010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108406016</v>
+        <v>108326016</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>108406004</v>
+        <v>108546004</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7">
-        <v>107406027</v>
+        <v>107326027</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>108406005</v>
+        <v>108443005</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>108406020</v>
+        <v>108426020</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>110406003</v>
@@ -537,15 +538,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>110406001</v>
+        <v>110416001</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
